--- a/Running projects/Engro 3rd & 8th Floor/Engro 7th Floor/VO/03- variation order for submerisible pump.xlsx
+++ b/Running projects/Engro 3rd & 8th Floor/Engro 7th Floor/VO/03- variation order for submerisible pump.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D113BF3-C7A7-4257-A978-E7B0960B4B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E4BEB8-B77B-4B92-BD17-081FDA6A34EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Note: Vendor Quotations attached</t>
   </si>
   <si>
-    <t>Variation # 3</t>
-  </si>
-  <si>
     <t>Project: Engro Office 7th Floor DMC Karachi</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Over head Profit 28%</t>
+  </si>
+  <si>
+    <t>Variation</t>
   </si>
 </sst>
 </file>
@@ -283,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -384,6 +384,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -536,8 +537,8 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>296410</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>29688</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77313</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -862,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +895,7 @@
       </c>
       <c r="B16" s="34"/>
       <c r="I16" s="9">
-        <v>45639</v>
+        <v>45661</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -903,7 +904,7 @@
     </row>
     <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="27"/>
     </row>
@@ -937,7 +938,7 @@
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -950,7 +951,7 @@
     </row>
     <row r="23" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -975,7 +976,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>13</v>
@@ -995,21 +996,21 @@
         <v>1</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="15">
-        <v>287500</v>
+        <v>260000</v>
       </c>
       <c r="D25" s="15">
         <v>25000</v>
       </c>
       <c r="E25" s="16">
         <f>SUM(C25+D25)*28%</f>
-        <v>87500.000000000015</v>
+        <v>79800.000000000015</v>
       </c>
       <c r="F25" s="16">
         <f>D25+C25+E25</f>
-        <v>400000</v>
+        <v>364800</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>14</v>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="I25" s="15">
         <f>F25*H25</f>
-        <v>800000</v>
+        <v>729600</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="26" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1035,7 +1036,7 @@
       <c r="H26" s="37"/>
       <c r="I26" s="31">
         <f>SUM(I25:I25)</f>
-        <v>800000</v>
+        <v>729600</v>
       </c>
       <c r="J26" s="33"/>
       <c r="K26" s="22"/>
@@ -1050,11 +1051,16 @@
       <c r="A30" s="25"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="5"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38">
+        <f>I26/2</f>
+        <v>364800</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
